--- a/NonCode/Database Prototypes.xlsx
+++ b/NonCode/Database Prototypes.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\CS50-FinalProject\NonCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EE046E-C857-4C3F-A93F-4BB9B7C11CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70AEB8C-3D23-447C-9B7A-92D319B6FE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DEBDF531-1C5C-4420-BC7A-CBED2BEBCF10}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DEBDF531-1C5C-4420-BC7A-CBED2BEBCF10}"/>
   </bookViews>
   <sheets>
     <sheet name="List_Skills" sheetId="2" r:id="rId1"/>
     <sheet name="List_Languages" sheetId="8" r:id="rId2"/>
     <sheet name="List_Classes" sheetId="6" r:id="rId3"/>
-    <sheet name="Background" sheetId="7" r:id="rId4"/>
-    <sheet name="Races" sheetId="4" r:id="rId5"/>
-    <sheet name="template" sheetId="5" r:id="rId6"/>
+    <sheet name="Class_Skills" sheetId="9" r:id="rId4"/>
+    <sheet name="Background" sheetId="7" r:id="rId5"/>
+    <sheet name="Races" sheetId="4" r:id="rId6"/>
+    <sheet name="template" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="102">
   <si>
     <t>Athletics</t>
   </si>
@@ -333,6 +334,9 @@
   </si>
   <si>
     <t>Exotic</t>
+  </si>
+  <si>
+    <t>class_id</t>
   </si>
 </sst>
 </file>
@@ -692,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6EC6FB5-4316-4C1F-BFFC-FA546C1D3ED1}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,7 +924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE044AEE-E1A4-406F-BB0E-0B741BD4F788}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -1229,7 +1233,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B13" sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,6 +1348,314 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6B96FC-1250-47B9-AAE6-A85B3695AB28}">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="M13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="M14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>13</v>
+      </c>
+      <c r="M15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>14</v>
+      </c>
+      <c r="M16" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>15</v>
+      </c>
+      <c r="M17" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>16</v>
+      </c>
+      <c r="M18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>17</v>
+      </c>
+      <c r="M19" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2124EAC4-D885-437A-8BED-B8CBE158618F}">
   <dimension ref="A1:V1"/>
   <sheetViews>
@@ -1429,7 +1741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496C294F-EFCE-4003-A7EB-B4907F913D55}">
   <dimension ref="A1:V4"/>
   <sheetViews>
@@ -1541,12 +1853,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B99894-4E67-4B15-B053-BB990B00F210}">
   <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:V1"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
